--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,9 +640,33 @@
         <v>2025-08-11 15:56:56.815</v>
       </c>
     </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.57%</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.61%</v>
+      </c>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.8%</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2025-08-11 16:04:49.548</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -664,9 +664,57 @@
         <v>2025-08-11 16:04:49.548</v>
       </c>
     </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.63%</v>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.63%</v>
+      </c>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.81%</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2025-08-11 16:14:47.236</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.61%</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.62%</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.81%</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2025-08-11 16:24:50.266</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,9 +712,33 @@
         <v>2025-08-11 16:24:50.266</v>
       </c>
     </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.58%</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.62%</v>
+      </c>
+      <c r="D15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.81%</v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2025-08-11 16:34:45.428</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -736,9 +736,57 @@
         <v>2025-08-11 16:34:45.428</v>
       </c>
     </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.72%</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.81%</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.9%</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2025-08-11 19:16:32.782</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.7%</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.8%</v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.9%</v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2025-08-11 19:29:11.974</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,9 +784,57 @@
         <v>2025-08-11 19:29:11.974</v>
       </c>
     </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.72%</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.81%</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.9%</v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2025-08-11 19:38:34.560</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.69%</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.8%</v>
+      </c>
+      <c r="D19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.89%</v>
+      </c>
+      <c r="E19" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2025-08-11 19:50:14.971</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -832,9 +832,81 @@
         <v>2025-08-11 19:50:14.971</v>
       </c>
     </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+89.69%</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.81%</v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.89%</v>
+      </c>
+      <c r="E20" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2025-08-11 19:59:52.540</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.1%</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.78%</v>
+      </c>
+      <c r="D21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.89%</v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2025-08-11 20:12:48.354</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B22" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.08%</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.78%</v>
+      </c>
+      <c r="D22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.89%</v>
+      </c>
+      <c r="E22" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2025-08-11 20:22:30.037</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -904,9 +904,57 @@
         <v>2025-08-11 20:22:30.037</v>
       </c>
     </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.09%</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.78%</v>
+      </c>
+      <c r="D23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.89%</v>
+      </c>
+      <c r="E23" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2025-08-11 20:31:46.063</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B24" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.09%</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.78%</v>
+      </c>
+      <c r="D24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.89%</v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2025-08-11 20:41:51.676</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,9 +952,105 @@
         <v>2025-08-11 20:41:51.676</v>
       </c>
     </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.07%</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.78%</v>
+      </c>
+      <c r="D25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+95.89%</v>
+      </c>
+      <c r="E25" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2025-08-11 20:51:49.558</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+92.5%</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.89%</v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.01%</v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2025-08-11 21:02:49.770</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+92.53%</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.9%</v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.02%</v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2025-08-11 21:12:52.258</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+92.54%</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.91%</v>
+      </c>
+      <c r="D28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.02%</v>
+      </c>
+      <c r="E28" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2025-08-11 21:23:02.755</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F28"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1048,9 +1048,81 @@
         <v>2025-08-11 21:23:02.755</v>
       </c>
     </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+92.5%</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.9%</v>
+      </c>
+      <c r="D29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.01%</v>
+      </c>
+      <c r="E29" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2025-08-11 21:32:50.466</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+92.47%</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.9%</v>
+      </c>
+      <c r="D30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.01%</v>
+      </c>
+      <c r="E30" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2025-08-11 21:42:50.010</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+92.42%</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.89%</v>
+      </c>
+      <c r="D31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.01%</v>
+      </c>
+      <c r="E31" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2025-08-11 21:52:59.686</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,9 +1120,57 @@
         <v>2025-08-11 21:52:59.686</v>
       </c>
     </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+93.91%</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.97%</v>
+      </c>
+      <c r="D32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96%</v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2025-08-11 22:02:35.603</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+93.91%</v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.97%</v>
+      </c>
+      <c r="D33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96%</v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2025-08-11 22:13:14.050</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,9 +1168,49 @@
         <v>2025-08-11 22:13:14.050</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>2025-08-11 22:22:28.498</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>2025-08-11 22:32:26.503</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1208,9 +1208,73 @@
         <v>2025-08-11 22:32:26.503</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>2025-08-11 22:42:25.097</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>2025-08-11 22:52:35.936</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B38" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+91.4%</v>
+      </c>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.41%</v>
+      </c>
+      <c r="D38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.39%</v>
+      </c>
+      <c r="E38" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2025-08-12 09:49:06.346</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1272,9 +1272,81 @@
         <v>2025-08-12 09:49:06.346</v>
       </c>
     </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+91.25%</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.38%</v>
+      </c>
+      <c r="D39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.37%</v>
+      </c>
+      <c r="E39" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2025-08-12 10:02:27.424</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+91.4%</v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.41%</v>
+      </c>
+      <c r="D40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.39%</v>
+      </c>
+      <c r="E40" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2025-08-12 10:10:47.619</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.81%</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.36%</v>
+      </c>
+      <c r="D41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.37%</v>
+      </c>
+      <c r="E41" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2025-08-12 10:20:46.499</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1344,9 +1344,57 @@
         <v>2025-08-12 10:20:46.499</v>
       </c>
     </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.79%</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.36%</v>
+      </c>
+      <c r="D42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.37%</v>
+      </c>
+      <c r="E42" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2025-08-12 10:30:35.030</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B43" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+90.45%</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+83.35%</v>
+      </c>
+      <c r="D43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.36%</v>
+      </c>
+      <c r="E43" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2025-08-12 10:40:50.210</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F43"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1392,9 +1392,29 @@
         <v>2025-08-12 10:40:50.210</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>2025-08-12 10:50:29.562</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F44"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,33 @@
         <v>2025-08-12 19:32:18.397</v>
       </c>
     </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Sweet Bonanza 1000</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+93%</v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+82.93%</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+96.45%</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.53%</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2025-08-12 19:45:25.720</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/sweet-bonanza-1000.xlsx
+++ b/data/raw/sweet-bonanza-1000.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,9 +476,29 @@
         <v>2025-08-12 19:45:25.720</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-08-12 19:57:04.529</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>